--- a/data.xlsx
+++ b/data.xlsx
@@ -26,16 +26,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>28</t>
+    <t>34</t>
   </si>
   <si>
-    <t>Book 1</t>
+    <t>Updated book title</t>
   </si>
   <si>
-    <t>Book 1 author</t>
+    <t>updated author</t>
   </si>
   <si>
-    <t>reading</t>
+    <t>to-read</t>
   </si>
 </sst>
 </file>
@@ -87,9 +87,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.8515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.07421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -26,16 +26,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>34</t>
+    <t>37</t>
   </si>
   <si>
-    <t>Updated book title</t>
+    <t>updated book 1</t>
   </si>
   <si>
-    <t>updated author</t>
+    <t>update author name</t>
   </si>
   <si>
-    <t>to-read</t>
+    <t>reading</t>
   </si>
 </sst>
 </file>
@@ -87,9 +87,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.8515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.07421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.8046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
